--- a/Code/Results/Cases/Case_0_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1168271342824312</v>
+        <v>0.1727495209494947</v>
       </c>
       <c r="D2">
-        <v>0.09376169846457572</v>
+        <v>0.127157671452153</v>
       </c>
       <c r="E2">
-        <v>0.05525578322372482</v>
+        <v>0.1364255611091814</v>
       </c>
       <c r="F2">
-        <v>0.740818051147599</v>
+        <v>1.907882314879409</v>
       </c>
       <c r="G2">
-        <v>0.0008218020190581978</v>
+        <v>0.002513077859497646</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5177144959105249</v>
+        <v>1.345494556904121</v>
       </c>
       <c r="J2">
-        <v>0.05847065110940264</v>
+        <v>0.1822171015749401</v>
       </c>
       <c r="K2">
-        <v>3.599969390179751</v>
+        <v>1.578902789843767</v>
       </c>
       <c r="L2">
-        <v>0.06461392705340074</v>
+        <v>0.195507159602613</v>
       </c>
       <c r="M2">
-        <v>0.7477322407360631</v>
+        <v>0.4910369676017794</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.831900738706096</v>
+        <v>5.022225227143252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1064035974283399</v>
+        <v>0.1705136274307222</v>
       </c>
       <c r="D3">
-        <v>0.08448674072678131</v>
+        <v>0.1248254744461406</v>
       </c>
       <c r="E3">
-        <v>0.0536264978233465</v>
+        <v>0.1366810173988124</v>
       </c>
       <c r="F3">
-        <v>0.7396413475747536</v>
+        <v>1.925036952250629</v>
       </c>
       <c r="G3">
-        <v>0.0008262423317467744</v>
+        <v>0.002516005637306301</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5183037470352119</v>
+        <v>1.358196868634025</v>
       </c>
       <c r="J3">
-        <v>0.06019358507237982</v>
+        <v>0.1837903693103673</v>
       </c>
       <c r="K3">
-        <v>3.131961249788503</v>
+        <v>1.432124680810546</v>
       </c>
       <c r="L3">
-        <v>0.06554840094870862</v>
+        <v>0.1967932989946952</v>
       </c>
       <c r="M3">
-        <v>0.653504424232878</v>
+        <v>0.4630080346250054</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.860184570673283</v>
+        <v>5.079078681962429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1000793668939792</v>
+        <v>0.1691938727517339</v>
       </c>
       <c r="D4">
-        <v>0.07883119185521537</v>
+        <v>0.1234219996810069</v>
       </c>
       <c r="E4">
-        <v>0.05268417790256841</v>
+        <v>0.1368813955479578</v>
       </c>
       <c r="F4">
-        <v>0.7407538257871025</v>
+        <v>1.936636649290755</v>
       </c>
       <c r="G4">
-        <v>0.0008290566465533224</v>
+        <v>0.002517898928674033</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5199933987901737</v>
+        <v>1.366761295343657</v>
       </c>
       <c r="J4">
-        <v>0.06134238717079477</v>
+        <v>0.1848209741551354</v>
       </c>
       <c r="K4">
-        <v>2.844886523418921</v>
+        <v>1.341896932497178</v>
       </c>
       <c r="L4">
-        <v>0.06620171219838689</v>
+        <v>0.1976431853464362</v>
       </c>
       <c r="M4">
-        <v>0.5957917835673499</v>
+        <v>0.4458509285073688</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.882872448075588</v>
+        <v>5.116976913954886</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.09752000176261788</v>
+        <v>0.1686694838806204</v>
       </c>
       <c r="D5">
-        <v>0.07653552027689159</v>
+        <v>0.1228573039907204</v>
       </c>
       <c r="E5">
-        <v>0.05231429252165043</v>
+        <v>0.136974022186104</v>
       </c>
       <c r="F5">
-        <v>0.7416493992475139</v>
+        <v>1.941631812381466</v>
       </c>
       <c r="G5">
-        <v>0.0008302260440170572</v>
+        <v>0.002518694576528112</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5210018939591166</v>
+        <v>1.370443731627088</v>
       </c>
       <c r="J5">
-        <v>0.06183286331766702</v>
+        <v>0.1852572164660238</v>
       </c>
       <c r="K5">
-        <v>2.727934731827332</v>
+        <v>1.305104387904322</v>
       </c>
       <c r="L5">
-        <v>0.06648751932898378</v>
+        <v>0.1980046789056917</v>
       </c>
       <c r="M5">
-        <v>0.5723012759444046</v>
+        <v>0.438873052026743</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.893400142029236</v>
+        <v>5.133172211641678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.09709606119643865</v>
+        <v>0.1685832222572969</v>
       </c>
       <c r="D6">
-        <v>0.07615484545943474</v>
+        <v>0.1227639753736867</v>
       </c>
       <c r="E6">
-        <v>0.05225371232627296</v>
+        <v>0.1369900661422339</v>
       </c>
       <c r="F6">
-        <v>0.7418242748101775</v>
+        <v>1.942477452600002</v>
       </c>
       <c r="G6">
-        <v>0.0008304215951193298</v>
+        <v>0.002518828151976029</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5211882829915702</v>
+        <v>1.371066814385614</v>
       </c>
       <c r="J6">
-        <v>0.06191564013406747</v>
+        <v>0.1853306368310701</v>
       </c>
       <c r="K6">
-        <v>2.708515939622401</v>
+        <v>1.298993638086898</v>
       </c>
       <c r="L6">
-        <v>0.06653614781006745</v>
+        <v>0.1980656207958411</v>
       </c>
       <c r="M6">
-        <v>0.5684021472085519</v>
+        <v>0.4377152286487842</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.895224116211608</v>
+        <v>5.135906803276072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1000447799087709</v>
+        <v>0.1691867462208023</v>
       </c>
       <c r="D7">
-        <v>0.07880019625822143</v>
+        <v>0.1234143546304409</v>
       </c>
       <c r="E7">
-        <v>0.05267913295856985</v>
+        <v>0.1368826002881303</v>
       </c>
       <c r="F7">
-        <v>0.7407641379043994</v>
+        <v>1.936702929953142</v>
       </c>
       <c r="G7">
-        <v>0.0008290723256459039</v>
+        <v>0.002517909561069287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.52000572218288</v>
+        <v>1.366810179154783</v>
       </c>
       <c r="J7">
-        <v>0.06134891217339522</v>
+        <v>0.1848267916049124</v>
       </c>
       <c r="K7">
-        <v>2.843309183322361</v>
+        <v>1.341400829238552</v>
       </c>
       <c r="L7">
-        <v>0.06620548796950843</v>
+        <v>0.1976479991711226</v>
       </c>
       <c r="M7">
-        <v>0.5954748800610616</v>
+        <v>0.4457567659316979</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.883009308547571</v>
+        <v>5.117192287301549</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1132165652510935</v>
+        <v>0.1719676070513714</v>
       </c>
       <c r="D8">
-        <v>0.09055498688370278</v>
+        <v>0.1263476515080129</v>
       </c>
       <c r="E8">
-        <v>0.05468165393421209</v>
+        <v>0.1365046236584941</v>
       </c>
       <c r="F8">
-        <v>0.740019624091083</v>
+        <v>1.913575824247175</v>
       </c>
       <c r="G8">
-        <v>0.000823315049510672</v>
+        <v>0.002514067553667122</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5176334608372528</v>
+        <v>1.349715480725614</v>
       </c>
       <c r="J8">
-        <v>0.05904552227426763</v>
+        <v>0.1827461632968816</v>
       </c>
       <c r="K8">
-        <v>3.438517391674623</v>
+        <v>1.52831701906922</v>
       </c>
       <c r="L8">
-        <v>0.06491936379939389</v>
+        <v>0.1959381411335368</v>
       </c>
       <c r="M8">
-        <v>0.7152075140744927</v>
+        <v>0.4813619364715294</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.840513993668978</v>
+        <v>5.041207493038883</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1397104964962637</v>
+        <v>0.1778394155848417</v>
       </c>
       <c r="D9">
-        <v>0.1139614995985312</v>
+        <v>0.1323235460520209</v>
       </c>
       <c r="E9">
-        <v>0.05909269698708108</v>
+        <v>0.1361077222680951</v>
       </c>
       <c r="F9">
-        <v>0.7540349353182876</v>
+        <v>1.876689206823926</v>
       </c>
       <c r="G9">
-        <v>0.0008127023691548163</v>
+        <v>0.002507288861668879</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5241827833908559</v>
+        <v>1.322266138603474</v>
       </c>
       <c r="J9">
-        <v>0.05527511197620427</v>
+        <v>0.1791780189937349</v>
       </c>
       <c r="K9">
-        <v>4.609878248940163</v>
+        <v>1.89393176442087</v>
       </c>
       <c r="L9">
-        <v>0.06304853258028231</v>
+        <v>0.1930617131239956</v>
       </c>
       <c r="M9">
-        <v>0.951554421859818</v>
+        <v>0.5515834510862305</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.802070503645922</v>
+        <v>4.915943408352319</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1596746057430494</v>
+        <v>0.1824055377291103</v>
       </c>
       <c r="D10">
-        <v>0.1314414978522365</v>
+        <v>0.1368476523574742</v>
       </c>
       <c r="E10">
-        <v>0.06266348195033089</v>
+        <v>0.136024704541601</v>
       </c>
       <c r="F10">
-        <v>0.7751194511710082</v>
+        <v>1.8547527812878</v>
       </c>
       <c r="G10">
-        <v>0.0008052877650422265</v>
+        <v>0.0025027645376865</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5368066846416468</v>
+        <v>1.30580489774708</v>
       </c>
       <c r="J10">
-        <v>0.05299707613043125</v>
+        <v>0.1768676042910968</v>
       </c>
       <c r="K10">
-        <v>5.475954480677274</v>
+        <v>2.161888704201999</v>
       </c>
       <c r="L10">
-        <v>0.06210069950749997</v>
+        <v>0.1912375902015171</v>
       </c>
       <c r="M10">
-        <v>1.126778148142634</v>
+        <v>0.6033991426643865</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.805130435770224</v>
+        <v>4.83840998310248</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1688878241794924</v>
+        <v>0.1845369223965321</v>
       </c>
       <c r="D11">
-        <v>0.1394712467638044</v>
+        <v>0.1389342529038373</v>
       </c>
       <c r="E11">
-        <v>0.06436791058862923</v>
+        <v>0.1360319600958348</v>
       </c>
       <c r="F11">
-        <v>0.7873770911338411</v>
+        <v>1.845895472037014</v>
       </c>
       <c r="G11">
-        <v>0.0008019905422635844</v>
+        <v>0.00250080434306891</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5444809964041255</v>
+        <v>1.29912169261128</v>
       </c>
       <c r="J11">
-        <v>0.05207640642613143</v>
+        <v>0.1758838764557424</v>
       </c>
       <c r="K11">
-        <v>5.87186327678512</v>
+        <v>2.283627819176957</v>
       </c>
       <c r="L11">
-        <v>0.06176920698060329</v>
+        <v>0.1904702576986068</v>
       </c>
       <c r="M11">
-        <v>1.206989410739922</v>
+        <v>0.6270162665483099</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.814261972917137</v>
+        <v>4.806291476845786</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1723975353727951</v>
+        <v>0.1853517584823976</v>
       </c>
       <c r="D12">
-        <v>0.1425245469941956</v>
+        <v>0.1397284451104213</v>
       </c>
       <c r="E12">
-        <v>0.06502558729504315</v>
+        <v>0.1360411575807277</v>
       </c>
       <c r="F12">
-        <v>0.792431299590163</v>
+        <v>1.842702802131228</v>
       </c>
       <c r="G12">
-        <v>0.0008007522259620795</v>
+        <v>0.00250007607899249</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5476860379705357</v>
+        <v>1.296706774046676</v>
       </c>
       <c r="J12">
-        <v>0.05174519812078771</v>
+        <v>0.1755210257471695</v>
       </c>
       <c r="K12">
-        <v>6.022124327813685</v>
+        <v>2.329702768439063</v>
       </c>
       <c r="L12">
-        <v>0.06165864899461226</v>
+        <v>0.1901886500082455</v>
       </c>
       <c r="M12">
-        <v>1.237449068534218</v>
+        <v>0.6359656274428289</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.818918005931067</v>
+        <v>4.794582746043602</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1716406953939469</v>
+        <v>0.1851759264292951</v>
       </c>
       <c r="D13">
-        <v>0.141866380043453</v>
+        <v>0.1395572228811517</v>
       </c>
       <c r="E13">
-        <v>0.06488338791552195</v>
+        <v>0.13603889025444</v>
       </c>
       <c r="F13">
-        <v>0.7913239519507513</v>
+        <v>1.843383220713008</v>
       </c>
       <c r="G13">
-        <v>0.0008010184730809613</v>
+        <v>0.002500232301069938</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5469821247934803</v>
+        <v>1.297221715290185</v>
       </c>
       <c r="J13">
-        <v>0.05181574115490051</v>
+        <v>0.1755987424261036</v>
       </c>
       <c r="K13">
-        <v>5.989746802558045</v>
+        <v>2.319780857273088</v>
       </c>
       <c r="L13">
-        <v>0.06168178316032069</v>
+        <v>0.1902489008614907</v>
       </c>
       <c r="M13">
-        <v>1.230885014086411</v>
+        <v>0.6340379609748794</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.81786053328284</v>
+        <v>4.797084235736605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1691761402741605</v>
+        <v>0.1846038049999237</v>
       </c>
       <c r="D14">
-        <v>0.1397221825515658</v>
+        <v>0.1389995109418294</v>
       </c>
       <c r="E14">
-        <v>0.06442176821174783</v>
+        <v>0.1360325876484154</v>
       </c>
       <c r="F14">
-        <v>0.7877844620942938</v>
+        <v>1.845629573851625</v>
       </c>
       <c r="G14">
-        <v>0.0008018884630437961</v>
+        <v>0.002500744147708474</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.544738558754652</v>
+        <v>1.298920693137873</v>
       </c>
       <c r="J14">
-        <v>0.05204880359737274</v>
+        <v>0.1758538308562301</v>
       </c>
       <c r="K14">
-        <v>5.884218176501065</v>
+        <v>2.287418949061305</v>
       </c>
       <c r="L14">
-        <v>0.06175980745481269</v>
+        <v>0.1904469101092765</v>
       </c>
       <c r="M14">
-        <v>1.209493553364794</v>
+        <v>0.6277524172645457</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.814620504430309</v>
+        <v>4.805319093130436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1676693072277686</v>
+        <v>0.1842543682655133</v>
       </c>
       <c r="D15">
-        <v>0.1384104848656449</v>
+        <v>0.1386584207157426</v>
       </c>
       <c r="E15">
-        <v>0.06414063037787798</v>
+        <v>0.1360295663866182</v>
       </c>
       <c r="F15">
-        <v>0.7856710441936841</v>
+        <v>1.847026552263159</v>
       </c>
       <c r="G15">
-        <v>0.0008024226755222445</v>
+        <v>0.002501059492235045</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5434038972243016</v>
+        <v>1.299976458116369</v>
       </c>
       <c r="J15">
-        <v>0.05219385573576929</v>
+        <v>0.1760113383242263</v>
       </c>
       <c r="K15">
-        <v>5.819624920033846</v>
+        <v>2.267593011839381</v>
       </c>
       <c r="L15">
-        <v>0.06180956894401746</v>
+        <v>0.1905693633786925</v>
       </c>
       <c r="M15">
-        <v>1.196402201428199</v>
+        <v>0.6239031148408856</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.812794562116153</v>
+        <v>4.8104223041654</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1590753097391797</v>
+        <v>0.1822673318969663</v>
       </c>
       <c r="D16">
-        <v>0.1309184210214624</v>
+        <v>0.1367118572505319</v>
       </c>
       <c r="E16">
-        <v>0.06255376608941532</v>
+        <v>0.1360251342556076</v>
       </c>
       <c r="F16">
-        <v>0.7743744755474893</v>
+        <v>1.855354207312246</v>
       </c>
       <c r="G16">
-        <v>0.0008055047180939948</v>
+        <v>0.002502894606334552</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5363457944389509</v>
+        <v>1.306257869583781</v>
       </c>
       <c r="J16">
-        <v>0.05305963797650115</v>
+        <v>0.1769332463725934</v>
       </c>
       <c r="K16">
-        <v>5.450124853076488</v>
+        <v>2.153929407819135</v>
       </c>
       <c r="L16">
-        <v>0.06212442259376871</v>
+        <v>0.1912889926471522</v>
       </c>
       <c r="M16">
-        <v>1.121547352024834</v>
+        <v>0.6018565861859457</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.80469654411209</v>
+        <v>4.840572479086319</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1538381876323314</v>
+        <v>0.1810621886688182</v>
       </c>
       <c r="D17">
-        <v>0.1263432179198958</v>
+        <v>0.1355249723929148</v>
       </c>
       <c r="E17">
-        <v>0.06160128737686321</v>
+        <v>0.1360339290940615</v>
       </c>
       <c r="F17">
-        <v>0.7681473121997726</v>
+        <v>1.860750317873737</v>
       </c>
       <c r="G17">
-        <v>0.0008074144183218812</v>
+        <v>0.002504045428398561</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5325251942425169</v>
+        <v>1.31031758371342</v>
       </c>
       <c r="J17">
-        <v>0.05362093383863886</v>
+        <v>0.1775160343605435</v>
       </c>
       <c r="K17">
-        <v>5.223984397575805</v>
+        <v>2.084158694291375</v>
       </c>
       <c r="L17">
-        <v>0.06234354508068662</v>
+        <v>0.1917464486909317</v>
       </c>
       <c r="M17">
-        <v>1.075763818011396</v>
+        <v>0.5883431321011869</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.801769575294031</v>
+        <v>4.859876337688632</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1508381795722755</v>
+        <v>0.180374131065804</v>
       </c>
       <c r="D18">
-        <v>0.1237189351114267</v>
+        <v>0.1348449998718309</v>
       </c>
       <c r="E18">
-        <v>0.06106093550851099</v>
+        <v>0.1360432266436185</v>
       </c>
       <c r="F18">
-        <v>0.7648147004145756</v>
+        <v>1.863959589624699</v>
       </c>
       <c r="G18">
-        <v>0.0008085199936991946</v>
+        <v>0.002504716573528116</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5305081427243437</v>
+        <v>1.312728397719596</v>
       </c>
       <c r="J18">
-        <v>0.05395460767099003</v>
+        <v>0.1778575730178282</v>
       </c>
       <c r="K18">
-        <v>5.094091697095394</v>
+        <v>2.044013910623391</v>
       </c>
       <c r="L18">
-        <v>0.06247892031550961</v>
+        <v>0.1920154464045538</v>
       </c>
       <c r="M18">
-        <v>1.049476645110744</v>
+        <v>0.5805749031424838</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.800809079347772</v>
+        <v>4.871276035463723</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1498244742355013</v>
+        <v>0.1801420462336552</v>
       </c>
       <c r="D19">
-        <v>0.1228316031612167</v>
+        <v>0.1346152372537972</v>
       </c>
       <c r="E19">
-        <v>0.0608792463348351</v>
+        <v>0.1360471034167485</v>
       </c>
       <c r="F19">
-        <v>0.7637282642531815</v>
+        <v>1.865064322744161</v>
       </c>
       <c r="G19">
-        <v>0.0008088955716094127</v>
+        <v>0.002504945397868862</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5298555774463836</v>
+        <v>1.313557669265826</v>
       </c>
       <c r="J19">
-        <v>0.05406942064900377</v>
+        <v>0.1779743004111047</v>
       </c>
       <c r="K19">
-        <v>5.050140908996298</v>
+        <v>2.030419163457964</v>
       </c>
       <c r="L19">
-        <v>0.06252634182370187</v>
+        <v>0.1921075350620711</v>
       </c>
       <c r="M19">
-        <v>1.040583824416494</v>
+        <v>0.5779454781303741</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.800605558958068</v>
+        <v>4.875186704654226</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1543944070491534</v>
+        <v>0.1811899499902268</v>
       </c>
       <c r="D20">
-        <v>0.1268294957177147</v>
+        <v>0.1356510401488578</v>
       </c>
       <c r="E20">
-        <v>0.06170190016247545</v>
+        <v>0.1360325543227887</v>
       </c>
       <c r="F20">
-        <v>0.7687842207117868</v>
+        <v>1.860164965657937</v>
       </c>
       <c r="G20">
-        <v>0.0008072103901185533</v>
+        <v>0.002503921967385876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5329130786684217</v>
+        <v>1.309877577221222</v>
       </c>
       <c r="J20">
-        <v>0.05356005630439675</v>
+        <v>0.1774533400733969</v>
       </c>
       <c r="K20">
-        <v>5.248038651923082</v>
+        <v>2.091587426991907</v>
       </c>
       <c r="L20">
-        <v>0.06231924780921716</v>
+        <v>0.1916971431785512</v>
       </c>
       <c r="M20">
-        <v>1.080632667876465</v>
+        <v>0.5897812157724189</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.802005729704746</v>
+        <v>4.857790704504538</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1698994571762427</v>
+        <v>0.1847716417938301</v>
       </c>
       <c r="D21">
-        <v>0.1403516314975661</v>
+        <v>0.1391632152809876</v>
       </c>
       <c r="E21">
-        <v>0.06455701862345009</v>
+        <v>0.1360342640169669</v>
       </c>
       <c r="F21">
-        <v>0.7888126578486734</v>
+        <v>1.844965384278368</v>
       </c>
       <c r="G21">
-        <v>0.000801632652322859</v>
+        <v>0.002500593425993969</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5453892584231141</v>
+        <v>1.298418516835362</v>
       </c>
       <c r="J21">
-        <v>0.0519798677852279</v>
+        <v>0.1757786429626478</v>
       </c>
       <c r="K21">
-        <v>5.915204772166192</v>
+        <v>2.296925125379005</v>
       </c>
       <c r="L21">
-        <v>0.061736478214371</v>
+        <v>0.1903885068482367</v>
       </c>
       <c r="M21">
-        <v>1.215774314564698</v>
+        <v>0.629598473335875</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.815538951737409</v>
+        <v>4.802887993591696</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1801555446721324</v>
+        <v>0.187157490159791</v>
       </c>
       <c r="D22">
-        <v>0.1492633487394386</v>
+        <v>0.1414821538668889</v>
       </c>
       <c r="E22">
-        <v>0.06649476609295135</v>
+        <v>0.1360729656793858</v>
       </c>
       <c r="F22">
-        <v>0.8043219273650521</v>
+        <v>1.835972395173812</v>
       </c>
       <c r="G22">
-        <v>0.0007980468237641994</v>
+        <v>0.002498499715779656</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5552966584015167</v>
+        <v>1.291604758708878</v>
       </c>
       <c r="J22">
-        <v>0.05104913112742437</v>
+        <v>0.1747404656164662</v>
       </c>
       <c r="K22">
-        <v>6.353244850051453</v>
+        <v>2.430978206119732</v>
       </c>
       <c r="L22">
-        <v>0.06144319656830888</v>
+        <v>0.1895854806013446</v>
       </c>
       <c r="M22">
-        <v>1.304601934203106</v>
+        <v>0.6556564817633586</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.831411558733294</v>
+        <v>4.769651572835556</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1746697673508635</v>
+        <v>0.1858800235288527</v>
       </c>
       <c r="D23">
-        <v>0.1444997172780944</v>
+        <v>0.140242361243466</v>
       </c>
       <c r="E23">
-        <v>0.06545373076037819</v>
+        <v>0.1360488788004304</v>
       </c>
       <c r="F23">
-        <v>0.7958127498507679</v>
+        <v>1.84068600357925</v>
       </c>
       <c r="G23">
-        <v>0.0007999554150847968</v>
+        <v>0.002499609715574127</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.549841024678777</v>
+        <v>1.295179559412148</v>
       </c>
       <c r="J23">
-        <v>0.05153626792396437</v>
+        <v>0.1752894093612483</v>
       </c>
       <c r="K23">
-        <v>6.119248978412031</v>
+        <v>2.359445855281706</v>
       </c>
       <c r="L23">
-        <v>0.06159148921450353</v>
+        <v>0.1900092966975748</v>
       </c>
       <c r="M23">
-        <v>1.257142077878129</v>
+        <v>0.6417457927074679</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.822267130274611</v>
+        <v>4.787148192171912</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1541429064987767</v>
+        <v>0.1811321741556071</v>
       </c>
       <c r="D24">
-        <v>0.1266096307459179</v>
+        <v>0.1355940374883744</v>
       </c>
       <c r="E24">
-        <v>0.06165639062339068</v>
+        <v>0.1360331626440789</v>
       </c>
       <c r="F24">
-        <v>0.7684955057430614</v>
+        <v>1.860429270176056</v>
       </c>
       <c r="G24">
-        <v>0.0008073026072908514</v>
+        <v>0.002503977754537498</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5327371587165146</v>
+        <v>1.310076264839466</v>
       </c>
       <c r="J24">
-        <v>0.05358754490566753</v>
+        <v>0.1774816639557244</v>
       </c>
       <c r="K24">
-        <v>5.237163359178396</v>
+        <v>2.088228998510715</v>
       </c>
       <c r="L24">
-        <v>0.06233020337812079</v>
+        <v>0.1917194155090165</v>
       </c>
       <c r="M24">
-        <v>1.078431354727797</v>
+        <v>0.5891310555014968</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.801896720988623</v>
+        <v>4.8587326796723</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1324627642921428</v>
+        <v>0.1762064445356799</v>
       </c>
       <c r="D25">
-        <v>0.1075847941211237</v>
+        <v>0.1306832460459191</v>
       </c>
       <c r="E25">
-        <v>0.05784410466025669</v>
+        <v>0.1361783701997386</v>
       </c>
       <c r="F25">
-        <v>0.7484524238638457</v>
+        <v>1.885761370770673</v>
       </c>
       <c r="G25">
-        <v>0.000815503896263488</v>
+        <v>0.002509042273615065</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5211142797735206</v>
+        <v>1.329041377216804</v>
       </c>
       <c r="J25">
-        <v>0.05621151618516862</v>
+        <v>0.180088591819576</v>
       </c>
       <c r="K25">
-        <v>4.292259149671111</v>
+        <v>1.795132476790741</v>
       </c>
       <c r="L25">
-        <v>0.06348197540775402</v>
+        <v>0.1937889808269766</v>
       </c>
       <c r="M25">
-        <v>0.887387739843831</v>
+        <v>0.5325459296458774</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.807274223923145</v>
+        <v>4.947286404905071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_197/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_197/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1727495209494947</v>
+        <v>0.1168271342816212</v>
       </c>
       <c r="D2">
-        <v>0.127157671452153</v>
+        <v>0.09376169846469651</v>
       </c>
       <c r="E2">
-        <v>0.1364255611091814</v>
+        <v>0.05525578322374081</v>
       </c>
       <c r="F2">
-        <v>1.907882314879409</v>
+        <v>0.740818051147599</v>
       </c>
       <c r="G2">
-        <v>0.002513077859497646</v>
+        <v>0.0008218020190385</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.345494556904121</v>
+        <v>0.5177144959105178</v>
       </c>
       <c r="J2">
-        <v>0.1822171015749401</v>
+        <v>0.05847065110944705</v>
       </c>
       <c r="K2">
-        <v>1.578902789843767</v>
+        <v>3.599969390179808</v>
       </c>
       <c r="L2">
-        <v>0.195507159602613</v>
+        <v>0.06461392705335456</v>
       </c>
       <c r="M2">
-        <v>0.4910369676017794</v>
+        <v>0.747732240736056</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.022225227143252</v>
+        <v>1.831900738706082</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1705136274307222</v>
+        <v>0.106403597428482</v>
       </c>
       <c r="D3">
-        <v>0.1248254744461406</v>
+        <v>0.08448674072655393</v>
       </c>
       <c r="E3">
-        <v>0.1366810173988124</v>
+        <v>0.05362649782335183</v>
       </c>
       <c r="F3">
-        <v>1.925036952250629</v>
+        <v>0.7396413475747323</v>
       </c>
       <c r="G3">
-        <v>0.002516005637306301</v>
+        <v>0.0008262423317471418</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.358196868634025</v>
+        <v>0.5183037470351906</v>
       </c>
       <c r="J3">
-        <v>0.1837903693103673</v>
+        <v>0.06019358507232297</v>
       </c>
       <c r="K3">
-        <v>1.432124680810546</v>
+        <v>3.131961249788503</v>
       </c>
       <c r="L3">
-        <v>0.1967932989946952</v>
+        <v>0.06554840094873171</v>
       </c>
       <c r="M3">
-        <v>0.4630080346250054</v>
+        <v>0.653504424232878</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.079078681962429</v>
+        <v>1.860184570673241</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1691938727517339</v>
+        <v>0.1000793668942208</v>
       </c>
       <c r="D4">
-        <v>0.1234219996810069</v>
+        <v>0.07883119185510878</v>
       </c>
       <c r="E4">
-        <v>0.1368813955479578</v>
+        <v>0.05268417790253999</v>
       </c>
       <c r="F4">
-        <v>1.936636649290755</v>
+        <v>0.7407538257871167</v>
       </c>
       <c r="G4">
-        <v>0.002517898928674033</v>
+        <v>0.0008290566465718288</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.366761295343657</v>
+        <v>0.5199933987901808</v>
       </c>
       <c r="J4">
-        <v>0.1848209741551354</v>
+        <v>0.06134238717082496</v>
       </c>
       <c r="K4">
-        <v>1.341896932497178</v>
+        <v>2.844886523419092</v>
       </c>
       <c r="L4">
-        <v>0.1976431853464362</v>
+        <v>0.06620171219849702</v>
       </c>
       <c r="M4">
-        <v>0.4458509285073688</v>
+        <v>0.5957917835673641</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.116976913954886</v>
+        <v>1.882872448075659</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1686694838806204</v>
+        <v>0.09752000176261788</v>
       </c>
       <c r="D5">
-        <v>0.1228573039907204</v>
+        <v>0.07653552027663579</v>
       </c>
       <c r="E5">
-        <v>0.136974022186104</v>
+        <v>0.05231429252164332</v>
       </c>
       <c r="F5">
-        <v>1.941631812381466</v>
+        <v>0.7416493992474997</v>
       </c>
       <c r="G5">
-        <v>0.002518694576528112</v>
+        <v>0.0008302260440743958</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.370443731627088</v>
+        <v>0.5210018939591521</v>
       </c>
       <c r="J5">
-        <v>0.1852572164660238</v>
+        <v>0.0618328633177061</v>
       </c>
       <c r="K5">
-        <v>1.305104387904322</v>
+        <v>2.727934731827276</v>
       </c>
       <c r="L5">
-        <v>0.1980046789056917</v>
+        <v>0.06648751932893049</v>
       </c>
       <c r="M5">
-        <v>0.438873052026743</v>
+        <v>0.5723012759444046</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.133172211641678</v>
+        <v>1.893400142029165</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1685832222572969</v>
+        <v>0.0970960611963676</v>
       </c>
       <c r="D6">
-        <v>0.1227639753736867</v>
+        <v>0.07615484545919315</v>
       </c>
       <c r="E6">
-        <v>0.1369900661422339</v>
+        <v>0.05225371232627651</v>
       </c>
       <c r="F6">
-        <v>1.942477452600002</v>
+        <v>0.7418242748101633</v>
       </c>
       <c r="G6">
-        <v>0.002518828151976029</v>
+        <v>0.0008304215951616123</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.371066814385614</v>
+        <v>0.5211882829915453</v>
       </c>
       <c r="J6">
-        <v>0.1853306368310701</v>
+        <v>0.06191564013415096</v>
       </c>
       <c r="K6">
-        <v>1.298993638086898</v>
+        <v>2.708515939622544</v>
       </c>
       <c r="L6">
-        <v>0.1980656207958411</v>
+        <v>0.06653614781005501</v>
       </c>
       <c r="M6">
-        <v>0.4377152286487842</v>
+        <v>0.5684021472085519</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.135906803276072</v>
+        <v>1.89522411621158</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1691867462208023</v>
+        <v>0.1000447799085151</v>
       </c>
       <c r="D7">
-        <v>0.1234143546304409</v>
+        <v>0.07880019625810064</v>
       </c>
       <c r="E7">
-        <v>0.1368826002881303</v>
+        <v>0.05267913295854498</v>
       </c>
       <c r="F7">
-        <v>1.936702929953142</v>
+        <v>0.7407641379044136</v>
       </c>
       <c r="G7">
-        <v>0.002517909561069287</v>
+        <v>0.0008290723256268683</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.366810179154783</v>
+        <v>0.5200057221828693</v>
       </c>
       <c r="J7">
-        <v>0.1848267916049124</v>
+        <v>0.06134891217338279</v>
       </c>
       <c r="K7">
-        <v>1.341400829238552</v>
+        <v>2.843309183322475</v>
       </c>
       <c r="L7">
-        <v>0.1976479991711226</v>
+        <v>0.0662054879696008</v>
       </c>
       <c r="M7">
-        <v>0.4457567659316979</v>
+        <v>0.5954748800610545</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.117192287301549</v>
+        <v>1.883009308547571</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1719676070513714</v>
+        <v>0.1132165652509087</v>
       </c>
       <c r="D8">
-        <v>0.1263476515080129</v>
+        <v>0.09055498688345409</v>
       </c>
       <c r="E8">
-        <v>0.1365046236584941</v>
+        <v>0.0546816539342494</v>
       </c>
       <c r="F8">
-        <v>1.913575824247175</v>
+        <v>0.7400196240910759</v>
       </c>
       <c r="G8">
-        <v>0.002514067553667122</v>
+        <v>0.0008233150495098318</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.349715480725614</v>
+        <v>0.5176334608372741</v>
       </c>
       <c r="J8">
-        <v>0.1827461632968816</v>
+        <v>0.05904552227417526</v>
       </c>
       <c r="K8">
-        <v>1.52831701906922</v>
+        <v>3.438517391674623</v>
       </c>
       <c r="L8">
-        <v>0.1959381411335368</v>
+        <v>0.06491936379944008</v>
       </c>
       <c r="M8">
-        <v>0.4813619364715294</v>
+        <v>0.715207514074514</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.041207493038883</v>
+        <v>1.840513993668992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1778394155848417</v>
+        <v>0.1397104964960221</v>
       </c>
       <c r="D9">
-        <v>0.1323235460520209</v>
+        <v>0.1139614995985738</v>
       </c>
       <c r="E9">
-        <v>0.1361077222680951</v>
+        <v>0.05909269698705089</v>
       </c>
       <c r="F9">
-        <v>1.876689206823926</v>
+        <v>0.7540349353182947</v>
       </c>
       <c r="G9">
-        <v>0.002507288861668879</v>
+        <v>0.0008127023692713287</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.322266138603474</v>
+        <v>0.5241827833908417</v>
       </c>
       <c r="J9">
-        <v>0.1791780189937349</v>
+        <v>0.05527511197625756</v>
       </c>
       <c r="K9">
-        <v>1.89393176442087</v>
+        <v>4.609878248940163</v>
       </c>
       <c r="L9">
-        <v>0.1930617131239956</v>
+        <v>0.06304853258033916</v>
       </c>
       <c r="M9">
-        <v>0.5515834510862305</v>
+        <v>0.9515544218598109</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.915943408352319</v>
+        <v>1.802070503645893</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1824055377291103</v>
+        <v>0.1596746057427083</v>
       </c>
       <c r="D10">
-        <v>0.1368476523574742</v>
+        <v>0.1314414978523075</v>
       </c>
       <c r="E10">
-        <v>0.136024704541601</v>
+        <v>0.0626634819503451</v>
       </c>
       <c r="F10">
-        <v>1.8547527812878</v>
+        <v>0.775119451170994</v>
       </c>
       <c r="G10">
-        <v>0.0025027645376865</v>
+        <v>0.0008052877650656932</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.30580489774708</v>
+        <v>0.5368066846416184</v>
       </c>
       <c r="J10">
-        <v>0.1768676042910968</v>
+        <v>0.05299707613034244</v>
       </c>
       <c r="K10">
-        <v>2.161888704201999</v>
+        <v>5.475954480677274</v>
       </c>
       <c r="L10">
-        <v>0.1912375902015171</v>
+        <v>0.06210069950741115</v>
       </c>
       <c r="M10">
-        <v>0.6033991426643865</v>
+        <v>1.126778148142648</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.83840998310248</v>
+        <v>1.805130435770224</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1845369223965321</v>
+        <v>0.1688878241794924</v>
       </c>
       <c r="D11">
-        <v>0.1389342529038373</v>
+        <v>0.1394712467639039</v>
       </c>
       <c r="E11">
-        <v>0.1360319600958348</v>
+        <v>0.06436791058867186</v>
       </c>
       <c r="F11">
-        <v>1.845895472037014</v>
+        <v>0.7873770911337914</v>
       </c>
       <c r="G11">
-        <v>0.00250080434306891</v>
+        <v>0.0008019905422070728</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.29912169261128</v>
+        <v>0.5444809964041326</v>
       </c>
       <c r="J11">
-        <v>0.1758838764557424</v>
+        <v>0.05207640642609235</v>
       </c>
       <c r="K11">
-        <v>2.283627819176957</v>
+        <v>5.87186327678512</v>
       </c>
       <c r="L11">
-        <v>0.1904702576986068</v>
+        <v>0.06176920698066368</v>
       </c>
       <c r="M11">
-        <v>0.6270162665483099</v>
+        <v>1.206989410739936</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.806291476845786</v>
+        <v>1.814261972917109</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1853517584823976</v>
+        <v>0.1723975353730651</v>
       </c>
       <c r="D12">
-        <v>0.1397284451104213</v>
+        <v>0.1425245469942382</v>
       </c>
       <c r="E12">
-        <v>0.1360411575807277</v>
+        <v>0.06502558729506447</v>
       </c>
       <c r="F12">
-        <v>1.842702802131228</v>
+        <v>0.792431299590163</v>
       </c>
       <c r="G12">
-        <v>0.00250007607899249</v>
+        <v>0.0008007522260427602</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.296706774046676</v>
+        <v>0.5476860379705215</v>
       </c>
       <c r="J12">
-        <v>0.1755210257471695</v>
+        <v>0.05174519812079836</v>
       </c>
       <c r="K12">
-        <v>2.329702768439063</v>
+        <v>6.022124327813401</v>
       </c>
       <c r="L12">
-        <v>0.1901886500082455</v>
+        <v>0.06165864899471174</v>
       </c>
       <c r="M12">
-        <v>0.6359656274428289</v>
+        <v>1.237449068534218</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.794582746043602</v>
+        <v>1.818918005930954</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1851759264292951</v>
+        <v>0.1716406953939469</v>
       </c>
       <c r="D13">
-        <v>0.1395572228811517</v>
+        <v>0.1418663800433535</v>
       </c>
       <c r="E13">
-        <v>0.13603889025444</v>
+        <v>0.06488338791553971</v>
       </c>
       <c r="F13">
-        <v>1.843383220713008</v>
+        <v>0.7913239519507584</v>
       </c>
       <c r="G13">
-        <v>0.002500232301069938</v>
+        <v>0.0008010184730509382</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.297221715290185</v>
+        <v>0.5469821247935087</v>
       </c>
       <c r="J13">
-        <v>0.1755987424261036</v>
+        <v>0.05181574115500354</v>
       </c>
       <c r="K13">
-        <v>2.319780857273088</v>
+        <v>5.989746802558102</v>
       </c>
       <c r="L13">
-        <v>0.1902489008614907</v>
+        <v>0.06168178316025674</v>
       </c>
       <c r="M13">
-        <v>0.6340379609748794</v>
+        <v>1.230885014086425</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.797084235736605</v>
+        <v>1.817860533282925</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1846038049999237</v>
+        <v>0.1691761402743026</v>
       </c>
       <c r="D14">
-        <v>0.1389995109418294</v>
+        <v>0.13972218255158</v>
       </c>
       <c r="E14">
-        <v>0.1360325876484154</v>
+        <v>0.06442176821174783</v>
       </c>
       <c r="F14">
-        <v>1.845629573851625</v>
+        <v>0.7877844620942582</v>
       </c>
       <c r="G14">
-        <v>0.002500744147708474</v>
+        <v>0.0008018884630440759</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.298920693137873</v>
+        <v>0.5447385587546378</v>
       </c>
       <c r="J14">
-        <v>0.1758538308562301</v>
+        <v>0.05204880359741537</v>
       </c>
       <c r="K14">
-        <v>2.287418949061305</v>
+        <v>5.884218176501065</v>
       </c>
       <c r="L14">
-        <v>0.1904469101092765</v>
+        <v>0.06175980745479848</v>
       </c>
       <c r="M14">
-        <v>0.6277524172645457</v>
+        <v>1.209493553364823</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.805319093130436</v>
+        <v>1.814620504430252</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1842543682655133</v>
+        <v>0.1676693072277828</v>
       </c>
       <c r="D15">
-        <v>0.1386584207157426</v>
+        <v>0.1384104848659433</v>
       </c>
       <c r="E15">
-        <v>0.1360295663866182</v>
+        <v>0.06414063037784601</v>
       </c>
       <c r="F15">
-        <v>1.847026552263159</v>
+        <v>0.7856710441936912</v>
       </c>
       <c r="G15">
-        <v>0.002501059492235045</v>
+        <v>0.0008024226755500796</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.299976458116369</v>
+        <v>0.5434038972242945</v>
       </c>
       <c r="J15">
-        <v>0.1760113383242263</v>
+        <v>0.05219385573581903</v>
       </c>
       <c r="K15">
-        <v>2.267593011839381</v>
+        <v>5.819624920033846</v>
       </c>
       <c r="L15">
-        <v>0.1905693633786925</v>
+        <v>0.06180956894398193</v>
       </c>
       <c r="M15">
-        <v>0.6239031148408856</v>
+        <v>1.196402201428185</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.8104223041654</v>
+        <v>1.812794562116181</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1822673318969663</v>
+        <v>0.1590753097394071</v>
       </c>
       <c r="D16">
-        <v>0.1367118572505319</v>
+        <v>0.1309184210212777</v>
       </c>
       <c r="E16">
-        <v>0.1360251342556076</v>
+        <v>0.06255376608939045</v>
       </c>
       <c r="F16">
-        <v>1.855354207312246</v>
+        <v>0.7743744755474893</v>
       </c>
       <c r="G16">
-        <v>0.002502894606334552</v>
+        <v>0.0008055047180940438</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.306257869583781</v>
+        <v>0.5363457944389509</v>
       </c>
       <c r="J16">
-        <v>0.1769332463725934</v>
+        <v>0.05305963797647451</v>
       </c>
       <c r="K16">
-        <v>2.153929407819135</v>
+        <v>5.450124853076545</v>
       </c>
       <c r="L16">
-        <v>0.1912889926471522</v>
+        <v>0.06212442259377227</v>
       </c>
       <c r="M16">
-        <v>0.6018565861859457</v>
+        <v>1.121547352024805</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.840572479086319</v>
+        <v>1.804696544112147</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1810621886688182</v>
+        <v>0.1538381876328856</v>
       </c>
       <c r="D17">
-        <v>0.1355249723929148</v>
+        <v>0.1263432179196116</v>
       </c>
       <c r="E17">
-        <v>0.1360339290940615</v>
+        <v>0.06160128737685255</v>
       </c>
       <c r="F17">
-        <v>1.860750317873737</v>
+        <v>0.7681473121997584</v>
       </c>
       <c r="G17">
-        <v>0.002504045428398561</v>
+        <v>0.00080741441830977</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.31031758371342</v>
+        <v>0.5325251942425027</v>
       </c>
       <c r="J17">
-        <v>0.1775160343605435</v>
+        <v>0.05362093383861577</v>
       </c>
       <c r="K17">
-        <v>2.084158694291375</v>
+        <v>5.223984397575634</v>
       </c>
       <c r="L17">
-        <v>0.1917464486909317</v>
+        <v>0.06234354508081452</v>
       </c>
       <c r="M17">
-        <v>0.5883431321011869</v>
+        <v>1.075763818011396</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.859876337688632</v>
+        <v>1.80176957529406</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.180374131065804</v>
+        <v>0.1508381795724887</v>
       </c>
       <c r="D18">
-        <v>0.1348449998718309</v>
+        <v>0.1237189351116683</v>
       </c>
       <c r="E18">
-        <v>0.1360432266436185</v>
+        <v>0.06106093550849856</v>
       </c>
       <c r="F18">
-        <v>1.863959589624699</v>
+        <v>0.7648147004145969</v>
       </c>
       <c r="G18">
-        <v>0.002504716573528116</v>
+        <v>0.0008085199937591682</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.312728397719596</v>
+        <v>0.5305081427243437</v>
       </c>
       <c r="J18">
-        <v>0.1778575730178282</v>
+        <v>0.05395460767103977</v>
       </c>
       <c r="K18">
-        <v>2.044013910623391</v>
+        <v>5.09409169709528</v>
       </c>
       <c r="L18">
-        <v>0.1920154464045538</v>
+        <v>0.06247892031552382</v>
       </c>
       <c r="M18">
-        <v>0.5805749031424838</v>
+        <v>1.04947664511073</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.871276035463723</v>
+        <v>1.800809079347772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1801420462336552</v>
+        <v>0.149824474235615</v>
       </c>
       <c r="D19">
-        <v>0.1346152372537972</v>
+        <v>0.1228316031610603</v>
       </c>
       <c r="E19">
-        <v>0.1360471034167485</v>
+        <v>0.06087924633484931</v>
       </c>
       <c r="F19">
-        <v>1.865064322744161</v>
+        <v>0.7637282642531815</v>
       </c>
       <c r="G19">
-        <v>0.002504945397868862</v>
+        <v>0.0008088955715734777</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.313557669265826</v>
+        <v>0.5298555774463765</v>
       </c>
       <c r="J19">
-        <v>0.1779743004111047</v>
+        <v>0.0540694206490322</v>
       </c>
       <c r="K19">
-        <v>2.030419163457964</v>
+        <v>5.050140908996354</v>
       </c>
       <c r="L19">
-        <v>0.1921075350620711</v>
+        <v>0.06252634182358463</v>
       </c>
       <c r="M19">
-        <v>0.5779454781303741</v>
+        <v>1.040583824416501</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.875186704654226</v>
+        <v>1.80060555895804</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1811899499902268</v>
+        <v>0.1543944070488124</v>
       </c>
       <c r="D20">
-        <v>0.1356510401488578</v>
+        <v>0.126829495717601</v>
       </c>
       <c r="E20">
-        <v>0.1360325543227887</v>
+        <v>0.06170190016250032</v>
       </c>
       <c r="F20">
-        <v>1.860164965657937</v>
+        <v>0.7687842207117654</v>
       </c>
       <c r="G20">
-        <v>0.002503921967385876</v>
+        <v>0.0008072103901053375</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.309877577221222</v>
+        <v>0.5329130786684217</v>
       </c>
       <c r="J20">
-        <v>0.1774533400733969</v>
+        <v>0.05356005630450511</v>
       </c>
       <c r="K20">
-        <v>2.091587426991907</v>
+        <v>5.248038651923309</v>
       </c>
       <c r="L20">
-        <v>0.1916971431785512</v>
+        <v>0.06231924780921005</v>
       </c>
       <c r="M20">
-        <v>0.5897812157724189</v>
+        <v>1.080632667876451</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.857790704504538</v>
+        <v>1.802005729704803</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1847716417938301</v>
+        <v>0.1698994571764842</v>
       </c>
       <c r="D21">
-        <v>0.1391632152809876</v>
+        <v>0.1403516314974524</v>
       </c>
       <c r="E21">
-        <v>0.1360342640169669</v>
+        <v>0.06455701862341101</v>
       </c>
       <c r="F21">
-        <v>1.844965384278368</v>
+        <v>0.7888126578486947</v>
       </c>
       <c r="G21">
-        <v>0.002500593425993969</v>
+        <v>0.0008016326523054241</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.298418516835362</v>
+        <v>0.5453892584230928</v>
       </c>
       <c r="J21">
-        <v>0.1757786429626478</v>
+        <v>0.05197986778521368</v>
       </c>
       <c r="K21">
-        <v>2.296925125379005</v>
+        <v>5.915204772166135</v>
       </c>
       <c r="L21">
-        <v>0.1903885068482367</v>
+        <v>0.06173647821438166</v>
       </c>
       <c r="M21">
-        <v>0.629598473335875</v>
+        <v>1.215774314564669</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.802887993591696</v>
+        <v>1.815538951737352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.187157490159791</v>
+        <v>0.1801555446719192</v>
       </c>
       <c r="D22">
-        <v>0.1414821538668889</v>
+        <v>0.1492633487393249</v>
       </c>
       <c r="E22">
-        <v>0.1360729656793858</v>
+        <v>0.06649476609298333</v>
       </c>
       <c r="F22">
-        <v>1.835972395173812</v>
+        <v>0.8043219273650379</v>
       </c>
       <c r="G22">
-        <v>0.002498499715779656</v>
+        <v>0.0007980468238183552</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.291604758708878</v>
+        <v>0.5552966584015167</v>
       </c>
       <c r="J22">
-        <v>0.1747404656164662</v>
+        <v>0.05104913112749188</v>
       </c>
       <c r="K22">
-        <v>2.430978206119732</v>
+        <v>6.353244850051453</v>
       </c>
       <c r="L22">
-        <v>0.1895854806013446</v>
+        <v>0.06144319656825203</v>
       </c>
       <c r="M22">
-        <v>0.6556564817633586</v>
+        <v>1.30460193420312</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.769651572835556</v>
+        <v>1.83141155873335</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1858800235288527</v>
+        <v>0.174669767350963</v>
       </c>
       <c r="D23">
-        <v>0.140242361243466</v>
+        <v>0.1444997172779665</v>
       </c>
       <c r="E23">
-        <v>0.1360488788004304</v>
+        <v>0.0654537307603924</v>
       </c>
       <c r="F23">
-        <v>1.84068600357925</v>
+        <v>0.7958127498507537</v>
       </c>
       <c r="G23">
-        <v>0.002499609715574127</v>
+        <v>0.0007999554151142177</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.295179559412148</v>
+        <v>0.5498410246787628</v>
       </c>
       <c r="J23">
-        <v>0.1752894093612483</v>
+        <v>0.05153626792387911</v>
       </c>
       <c r="K23">
-        <v>2.359445855281706</v>
+        <v>6.119248978412088</v>
       </c>
       <c r="L23">
-        <v>0.1900092966975748</v>
+        <v>0.06159148921441471</v>
       </c>
       <c r="M23">
-        <v>0.6417457927074679</v>
+        <v>1.2571420778781</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.787148192171912</v>
+        <v>1.822267130274611</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1811321741556071</v>
+        <v>0.1541429064987767</v>
       </c>
       <c r="D24">
-        <v>0.1355940374883744</v>
+        <v>0.1266096307458611</v>
       </c>
       <c r="E24">
-        <v>0.1360331626440789</v>
+        <v>0.06165639062339423</v>
       </c>
       <c r="F24">
-        <v>1.860429270176056</v>
+        <v>0.7684955057430614</v>
       </c>
       <c r="G24">
-        <v>0.002503977754537498</v>
+        <v>0.0008073026073140735</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.310076264839466</v>
+        <v>0.5327371587165146</v>
       </c>
       <c r="J24">
-        <v>0.1774816639557244</v>
+        <v>0.05358754490566753</v>
       </c>
       <c r="K24">
-        <v>2.088228998510715</v>
+        <v>5.237163359178339</v>
       </c>
       <c r="L24">
-        <v>0.1917194155090165</v>
+        <v>0.06233020337814565</v>
       </c>
       <c r="M24">
-        <v>0.5891310555014968</v>
+        <v>1.078431354727797</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.8587326796723</v>
+        <v>1.801896720988623</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1762064445356799</v>
+        <v>0.132462764292228</v>
       </c>
       <c r="D25">
-        <v>0.1306832460459191</v>
+        <v>0.1075847941210526</v>
       </c>
       <c r="E25">
-        <v>0.1361783701997386</v>
+        <v>0.05784410466024248</v>
       </c>
       <c r="F25">
-        <v>1.885761370770673</v>
+        <v>0.7484524238638386</v>
       </c>
       <c r="G25">
-        <v>0.002509042273615065</v>
+        <v>0.000815503896263017</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.329041377216804</v>
+        <v>0.5211142797735278</v>
       </c>
       <c r="J25">
-        <v>0.180088591819576</v>
+        <v>0.05621151618513487</v>
       </c>
       <c r="K25">
-        <v>1.795132476790741</v>
+        <v>4.292259149671168</v>
       </c>
       <c r="L25">
-        <v>0.1937889808269766</v>
+        <v>0.06348197540769007</v>
       </c>
       <c r="M25">
-        <v>0.5325459296458774</v>
+        <v>0.887387739843831</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.947286404905071</v>
+        <v>1.807274223923201</v>
       </c>
     </row>
   </sheetData>
